--- a/dataset/webapp-asg/all.xlsx
+++ b/dataset/webapp-asg/all.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5166,6 +5166,912 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:35:50</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="C33" t="n">
+        <v>63.18</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>65.86600000000001</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>55.175</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>(1, 0, 1)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>99.84229248779367</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.4111026681784422</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>99.92598269555621</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>57.158461425863095</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0.15770751220633303</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>-0.016047158756832505</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0.06679761317679206</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>-0.00827259274989351</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0.0770764315458301</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0.13766812126803274</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0.5797912289191074</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>0.07401730444379019</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>-1.8278079324164997</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>4.514870301922603</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>-0.024028221997343103</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>5.800394045548573</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>0.07256155475507586</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>-0.1977372099774117</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:36:56</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.3390000000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>55.268</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>65.71600000000001</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>55.268</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>(1, 0, 1)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>99.83688885831555</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.4144448113549493</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>99.92615738607057</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>59.242930837823835</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.16311114168445554</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-0.008422827914184028</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0.06751821302497184</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0.010962712141247865</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0.07694178473506949</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0.14136563263396296</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>0.42711133059153306</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>0.0738426139294245</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>-1.3442463682298051</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>4.469875346581039</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>-0.016032451974947695</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>5.670760950447712</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>0.0721060456512378</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>-0.2594345344362009</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:38:03</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4918</v>
+      </c>
+      <c r="C35" t="n">
+        <v>57.424</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>65.566</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>55.471000000000004</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>(1, 0, 1)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>99.8401279592495</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.45713849326724754</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>99.93717496096464</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>56.0174870975375</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.15987204075049713</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.00675511688816853</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.06585050199895633</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.01420181307520628</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0.07596744278642796</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.13812653170000455</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>0.49304115542222193</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>0.06282503903535515</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>-0.6189608668168803</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>3.744589845168114</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>-0.005014877080878342</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>4.879017751862821</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>0.0610884707571685</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>-0.3304887787312858</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:39:08</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="C36" t="n">
+        <v>57.618</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.5051</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>65.41600000000001</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>55.674</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>(1, 0, 1)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>99.86039769831741</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.44536604416215375</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>99.93666928312169</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>56.8700556709892</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.13960230168258983</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.022055323860291243</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0.06107262099980799</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>-0.02676079909589545</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.06995585426115172</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0.12608280622512025</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0.24123867292504725</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>0.06333071687830681</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>-0.6466694877926576</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>3.772298466143891</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>-0.0055205549238300155</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>4.8823201475039575</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>0.061594148600120135</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>-0.3346954690419064</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:40:14</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>59.656</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.50425</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>65.266</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>55.827</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>(1, 0, 1)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>99.86069571503366</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.4321359578143261</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>99.93807029473396</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>56.96446648754787</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.13930428496634042</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>-0.025579071423782216</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0.06159503801410537</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>-0.03514289796323793</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0.06979717140327113</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0.126824750697907</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0.25658000756172694</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>0.06192970526603732</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>-0.803966720458771</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>3.6891627004752943</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>-0.008566478846520271</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>4.749809331568598</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>0.06032671916309573</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>-0.3325593557042838</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:41:22</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>48.672</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.5034</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>65.116</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>55.674</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>(1, 0, 1)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>99.88088626977702</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.42550974168657824</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>(1, 0, 0)</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>99.93067238904304</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>57.81167628414005</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.11911373022298033</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-0.0418582344355248</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.0567759147428892</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>-0.07825353218765087</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0.06206269671003733</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0.11586074340571095</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>0.17551612311456005</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>0.06932761095696661</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>-0.4745070919717892</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>4.018622328962277</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>-0.00116857315559098</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>5.212670139568407</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>0.06603237570835896</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>-0.3849538902489156</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
